--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17094.29887031176</v>
+        <v>3401765.475192039</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17094.29887031176</v>
+        <v>3401765.475192039</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58787.45737595409</v>
+        <v>3874110.427910368</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58787.45737595409</v>
+        <v>3874110.427910368</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610537406.54897</v>
+        <v>61604722.15539189</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15701.14876819099</v>
+        <v>1434365.357852333</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30203.21611741191</v>
+        <v>2662651.930986222</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44693.22112124732</v>
+        <v>3890938.504120113</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59886.89153897256</v>
+        <v>5117697.025434788</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75080.56195669775</v>
+        <v>6344455.546749462</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90274.23237442295</v>
+        <v>7571214.068064134</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105467.9027921481</v>
+        <v>8797972.589378802</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120661.5732098733</v>
+        <v>10024731.11069347</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135855.2436275985</v>
+        <v>11251489.63200814</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151048.9140453238</v>
+        <v>12478248.15332281</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166242.5844630476</v>
+        <v>13705006.67463764</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>181436.2548807706</v>
+        <v>14931765.19595255</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>196629.9252984945</v>
+        <v>16158523.71726738</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>212559.8935627062</v>
+        <v>17286332.25375091</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>228489.8618269178</v>
+        <v>18414140.79023445</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>8.970030299969949e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
